--- a/biology/Médecine/Foramen_ethmoïdal_postérieur/Foramen_ethmoïdal_postérieur.xlsx
+++ b/biology/Médecine/Foramen_ethmoïdal_postérieur/Foramen_ethmoïdal_postérieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foramen_ethmo%C3%AFdal_post%C3%A9rieur</t>
+          <t>Foramen_ethmoïdal_postérieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen ethmoïdal postérieur est une petite ouverture à l'arrière de la paroi médiale de l'orbite.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foramen_ethmo%C3%AFdal_post%C3%A9rieur</t>
+          <t>Foramen_ethmoïdal_postérieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le foramen ethmoïdal postérieur est situé entre l'os ethmoïde et le bord médian de la partie orbitale de l'os frontal.
 Il fait communiquer les cavités orbitaires avec la fosse crânienne antérieure où il débouche à l'arrière du bord latéral du sillon olfactif sous une lame saillante issue de l'os sphénoïde.
